--- a/Manuals/SupportFiles/tables.xlsx
+++ b/Manuals/SupportFiles/tables.xlsx
@@ -627,7 +627,7 @@
   <dimension ref="C2:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
